--- a/artfynd/A 24072-2022.xlsx
+++ b/artfynd/A 24072-2022.xlsx
@@ -2024,7 +2024,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>103088360</v>
+        <v>103314193</v>
       </c>
       <c r="B14" t="n">
         <v>89412</v>
@@ -2058,9 +2058,12 @@
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>NV Piertinjaure, Lu lm</t>
+          <t>NO om Piertinjaure, Lu lm</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -2070,7 +2073,7 @@
         <v>7394438.342821089</v>
       </c>
       <c r="S14" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2118,18 +2121,29 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Elin Götmark</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>S101</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
         <is>
-          <t>Pia Edfors</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AX14" t="inlineStr">
         <is>
-          <t>Pia Edfors, Elin Götmark, Carin von Köhler, Linda Hanson</t>
+          <t>Elin Götmark</t>
         </is>
       </c>
       <c r="AY14" t="inlineStr"/>
